--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -223,6 +223,22 @@
   </si>
   <si>
     <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -639,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,11 +686,17 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>29</v>
@@ -690,11 +712,17 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>28</v>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -656,7 +656,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -151,11 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地球护盾值+30%
-（可以突破上限）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -185,23 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OMMON</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>品质</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -239,6 +217,31 @@
   </si>
   <si>
     <t>(list#sep=,),string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_conds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Com_UnlockConds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球护盾值+30%
+（可突破上限）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -339,6 +342,19 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -354,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +391,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,23 +702,28 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -709,91 +733,85 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>20</v>
@@ -802,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2">
         <v>5</v>
@@ -812,11 +830,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>3</v>
+      <c r="B6" s="3">
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>20</v>
@@ -825,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
@@ -835,20 +853,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>4</v>
+      <c r="B7" s="2">
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2">
         <v>5</v>
@@ -857,62 +875,49 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="M8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2">
         <v>10</v>
-      </c>
-      <c r="M8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
@@ -920,32 +925,32 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
         <v>1000</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>17</v>
@@ -955,12 +960,40 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
@@ -985,11 +1018,22 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:E3"/>
+  <mergeCells count="4">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>解锁条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>W</t>
     </r>
@@ -220,10 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>unlock_conds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cond_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,15 +225,24 @@
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beans.Com_UnlockConds</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地球护盾值+30%
 （可突破上限）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,Beans.Com_UnlockConds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*unlock_conds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件
+（多个之间取并集&amp;&amp;）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="8"/>
@@ -711,16 +715,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>28</v>
@@ -734,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
@@ -742,16 +746,16 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
@@ -762,22 +766,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>29</v>
+      <c r="C4" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -788,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>9</v>
@@ -811,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>20</v>
@@ -820,7 +824,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2">
         <v>5</v>
@@ -834,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>20</v>
@@ -843,7 +847,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
@@ -857,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>20</v>
@@ -866,7 +870,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2">
         <v>5</v>
@@ -880,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
@@ -889,7 +893,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -903,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -911,10 +915,10 @@
         <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2">
         <v>10</v>
@@ -928,7 +932,7 @@
         <v>1001</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -943,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
@@ -960,48 +964,59 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>1002</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>1000</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
@@ -1026,7 +1041,15 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -159,23 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EAPON</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>品质</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -237,11 +220,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>*unlock_conds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁条件
+    <t>WEAPONLEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONUNLOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*unlock_conds_bfbattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*unlock_conds_inbattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中抽取的条件
+（多个之间取并集&amp;&amp;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗前加载的条件
 （多个之间取并集&amp;&amp;）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -389,16 +389,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,263 +676,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="25.375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="27.125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="18.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="18.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="25.375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="27.125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="18.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23" style="2" customWidth="1"/>
+    <col min="18" max="18" width="38.125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>45</v>
+      <c r="C1" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="9"/>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>46</v>
+      <c r="C4" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
         <v>5</v>
       </c>
-      <c r="M5" s="2">
+      <c r="P5" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
         <v>5</v>
       </c>
-      <c r="M6" s="2">
+      <c r="P6" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="K8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
         <v>5</v>
       </c>
-      <c r="M8" s="2">
+      <c r="P8" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="J9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2">
         <v>10</v>
       </c>
-      <c r="M9" s="2">
+      <c r="P9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>1001</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -941,122 +983,141 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="K10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>1000</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="2">
+      <c r="P10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>1002</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="K12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <v>1000</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="2">
+      <c r="P12" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C4:E4"/>
+  <mergeCells count="8">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -243,6 +243,10 @@
   <si>
     <t>战斗前加载的条件
 （多个之间取并集&amp;&amp;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORANGE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +683,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J10" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4">

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J9:J10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>离子枪列数+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>离子枪连射+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,35 +82,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>BULLET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LINE</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BULLETCOLUMN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>weaponId:1001,num:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>离子列</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,19 +154,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>parameters</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>text_desc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -247,6 +210,51 @@
   </si>
   <si>
     <t>ORANGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONCOLUMN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONRAW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子枪列数+1
+伤害+30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONDAMAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONDAMAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,Beans.card_Effects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*card_effects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -699,14 +707,16 @@
     <col min="9" max="9" width="27.125" style="2" customWidth="1"/>
     <col min="10" max="11" width="25.375" style="2" customWidth="1"/>
     <col min="12" max="13" width="27.125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="18.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16" style="2" customWidth="1"/>
-    <col min="17" max="17" width="23" style="2" customWidth="1"/>
-    <col min="18" max="18" width="38.125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16" style="2" customWidth="1"/>
+    <col min="18" max="18" width="23" style="2" customWidth="1"/>
+    <col min="19" max="19" width="38.125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,12 +724,12 @@
         <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="9"/>
       <c r="F1" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="9"/>
@@ -727,22 +737,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -750,12 +762,12 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="9"/>
       <c r="F2" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="9"/>
@@ -763,41 +775,50 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -805,12 +826,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -821,164 +842,207 @@
         <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2">
         <v>5</v>
       </c>
+      <c r="N5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-1</v>
+      </c>
       <c r="P5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
+      <c r="N6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="2">
+        <v>-1</v>
+      </c>
       <c r="P6" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
+      <c r="N7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="2">
+        <v>-1</v>
+      </c>
       <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
+      <c r="N8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="2">
+        <v>-1</v>
+      </c>
       <c r="P8" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M9" s="2">
         <v>10</v>
       </c>
-      <c r="P9" s="2">
+      <c r="N9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>1001</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -987,42 +1051,45 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
         <v>1000</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="2">
+        <v>45</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1001</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -1035,13 +1102,14 @@
       <c r="M11" s="4"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>1002</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -1050,36 +1118,39 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
         <v>1000</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="2">
+        <v>46</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1001</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1087,7 +1158,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1095,7 +1166,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1103,7 +1174,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1111,9 +1182,14 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -255,6 +251,11 @@
   </si>
   <si>
     <t>HEAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数
+(百分比为万分数)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -690,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,12 +725,12 @@
         <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="9"/>
       <c r="F1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="9"/>
@@ -737,21 +738,21 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -762,12 +763,12 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="9"/>
       <c r="F2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="9"/>
@@ -775,21 +776,21 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -797,24 +798,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="H3" s="9"/>
       <c r="N3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="P3" s="9"/>
     </row>
@@ -826,12 +827,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -842,23 +843,23 @@
         <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>13</v>
+      <c r="O4" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -866,31 +867,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2">
         <v>5</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O5" s="2">
         <v>-1</v>
       </c>
       <c r="P5" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Q5" s="2">
         <v>-1</v>
@@ -901,31 +902,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O6" s="2">
         <v>-1</v>
       </c>
       <c r="P6" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Q6" s="2">
         <v>-1</v>
@@ -936,31 +937,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2">
         <v>-1</v>
       </c>
       <c r="P7" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Q7" s="2">
         <v>-1</v>
@@ -971,31 +972,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2">
         <v>-1</v>
       </c>
       <c r="P8" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="2">
         <v>-1</v>
@@ -1006,32 +1007,32 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="2">
         <v>10</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" s="2">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="Q9" s="2">
         <v>5</v>
@@ -1042,39 +1043,39 @@
         <v>1001</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
         <v>1000</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="P10" s="3">
         <v>1</v>
@@ -1089,7 +1090,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -1100,48 +1101,54 @@
       <c r="K11" s="3"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3000</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>1002</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
         <v>1000</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O12" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="P12" s="3">
         <v>1</v>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -692,7 +692,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -402,16 +402,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,16 +724,16 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="7"/>
-      <c r="H1" s="9"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
@@ -746,11 +746,11 @@
       <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>53</v>
       </c>
       <c r="O1" s="7"/>
-      <c r="P1" s="9"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
@@ -762,16 +762,16 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
@@ -784,11 +784,11 @@
       <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="O2" s="7"/>
-      <c r="P2" s="9"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
@@ -800,24 +800,24 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="N3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="9"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -826,12 +826,12 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="7"/>
@@ -854,10 +854,10 @@
       <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="9"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,6 +1193,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O4:P4"/>
@@ -1201,10 +1205,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -256,6 +256,18 @@
   <si>
     <t>参数
 (百分比为万分数)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +423,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,24 +715,26 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="25.375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="27.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16" style="2" customWidth="1"/>
-    <col min="18" max="18" width="23" style="2" customWidth="1"/>
-    <col min="19" max="19" width="38.125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="6.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="25.375" style="2" customWidth="1"/>
+    <col min="14" max="15" width="27.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="20" width="23" style="2" customWidth="1"/>
+    <col min="21" max="21" width="38.125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,34 +745,36 @@
         <v>39</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -766,34 +785,36 @@
         <v>36</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,21 +826,27 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="N3" s="1" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,180 +856,190 @@
       <c r="C4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="8"/>
+      <c r="S4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>5</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1000</v>
       </c>
       <c r="Q5" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>5</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1000</v>
       </c>
       <c r="Q6" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>5</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="O7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1000</v>
       </c>
       <c r="Q7" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>5</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="O8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>500</v>
       </c>
       <c r="Q8" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="2">
+        <v>500</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1011,34 +1048,36 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>10</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>3000</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>1001</v>
       </c>
@@ -1052,66 +1091,72 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
         <v>1000</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>1002</v>
       </c>
@@ -1125,86 +1170,90 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
         <v>1000</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -149,7 +149,7 @@
     <t>BLUE</t>
   </si>
   <si>
-    <t>UI/Cards/icon_tricardbg_1</t>
+    <t>Cards/icon_tricardbg_1</t>
   </si>
   <si>
     <t>WEAPONDAMAGE</t>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -208,7 +208,7 @@
     <t>离子枪&lt;color=#febf74&gt;连射+1&lt;/color&gt;</t>
   </si>
   <si>
-    <t>WEAPONRAW</t>
+    <t>WEAPONROW</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +233,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -387,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,12 +402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,52 +735,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,73 +798,70 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -901,16 +888,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,7 +1222,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1809,13 +1796,12 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:15">
       <c r="B15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="8"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -214,6 +214,120 @@
   </si>
   <si>
     <t>draw_count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGRADE</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Card.Type</t>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONPREEQUIP</t>
+  </si>
+  <si>
+    <t>武器解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁-{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>解锁武器&lt;color=#febf74&gt;{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;！</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器解锁卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +363,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,17 +491,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,106 +797,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="15.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="50.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="25.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="36.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="27.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.75" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16" style="2" customWidth="1"/>
-    <col min="21" max="21" width="23" style="2" customWidth="1"/>
-    <col min="22" max="22" width="38.125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="50.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="36.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="27.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16" style="2" customWidth="1"/>
+    <col min="22" max="22" width="23" style="2" customWidth="1"/>
+    <col min="23" max="23" width="38.125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="11"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
@@ -749,510 +908,675 @@
         <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="1" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="4"/>
+      <c r="R3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="8"/>
+      <c r="U4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:21" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>100</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>100</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="2">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q9" s="2">
         <v>5</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S9" s="2">
         <v>-1</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T9" s="2">
         <v>1000</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U9" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q10" s="2">
         <v>5</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S10" s="2">
         <v>-1</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T10" s="2">
         <v>1000</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U10" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q11" s="2">
         <v>5</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S11" s="2">
         <v>-1</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T11" s="2">
         <v>1000</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U11" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q12" s="2">
         <v>5</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S12" s="2">
         <v>-1</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T12" s="2">
         <v>500</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U12" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+    <row r="13" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q13" s="2">
         <v>10</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S13" s="2">
         <v>3000</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U13" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+    <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
         <v>1001</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q14" s="6">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1</v>
-      </c>
-      <c r="T12" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1000</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -314,20 +314,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
+    <t>!=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +787,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_ConfigExcels/Datas/card.xlsx
+++ b/_ConfigExcels/Datas/card.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -164,13 +164,6 @@
   </si>
   <si>
     <t>WEAPONCD</t>
-  </si>
-  <si>
-    <t>回复城防</t>
-  </si>
-  <si>
-    <t>地球护盾值&lt;color=#febf74&gt;+30%&lt;/color&gt;
-（不可突破上限）</t>
   </si>
   <si>
     <t>PURPLE</t>
@@ -315,6 +308,15 @@
   </si>
   <si>
     <t>!=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吱星护盾值&lt;color=#febf74&gt;+30%&lt;/color&gt;
+（不可突破上限）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -825,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
@@ -863,7 +868,7 @@
       <c r="S1" s="11"/>
       <c r="T1" s="8"/>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -874,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>13</v>
@@ -956,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>22</v>
@@ -999,23 +1004,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>70</v>
+    <row r="5" spans="1:21" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -1023,26 +1028,26 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="3">
         <v>2</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>38</v>
@@ -1051,7 +1056,7 @@
         <v>100</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S6" s="2">
         <v>2</v>
@@ -1062,13 +1067,13 @@
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1076,26 +1081,26 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" s="3">
         <v>3</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>38</v>
@@ -1104,7 +1109,7 @@
         <v>100</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S7" s="2">
         <v>3</v>
@@ -1113,439 +1118,916 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="2">
+        <v>4</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>60</v>
+        <v>105</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Q9" s="2">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="2">
         <v>5</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1000</v>
-      </c>
       <c r="U9" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>60</v>
+        <v>106</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="2">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="U10" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Q11" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="2">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="U11" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>60</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Q12" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="2">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="U12" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>60</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="I13" s="3">
+        <v>9</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>44</v>
+      <c r="K13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Q13" s="2">
+        <v>100</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="2">
+        <v>9</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>110</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="2">
-        <v>3000</v>
-      </c>
-      <c r="U13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="K14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="6">
-        <v>1000</v>
+      <c r="Q14" s="2">
+        <v>100</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="3">
-        <v>1</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="S14" s="2">
+        <v>10</v>
       </c>
       <c r="U14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="6"/>
+      <c r="K15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>100</v>
+      </c>
       <c r="R15" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S15" s="2">
-        <v>1</v>
-      </c>
-      <c r="T15" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>112</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>56</v>
+      <c r="K16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="2">
+        <v>100</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="2">
+        <v>12</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="2">
         <v>1000</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="3">
-        <v>1</v>
-      </c>
-      <c r="T16" s="3">
-        <v>1</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="U18" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="R19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U19" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="2">
+        <v>500</v>
+      </c>
+      <c r="U21" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="2">
+        <v>3000</v>
+      </c>
+      <c r="U22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>1000</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+      <c r="U25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
